--- a/biology/Microbiologie/Xérophile/Xérophile.xlsx
+++ b/biology/Microbiologie/Xérophile/Xérophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X%C3%A9rophile</t>
+          <t>Xérophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les xérophiles (du grec ancien ξηρός / xērós « sec » et φίλος / phílos, « ami ») sont des organismes extrêmophiles vivant dans des milieux très pauvres en eau. Divers organismes, parmi lesquels des bactéries, des champignons, des plantes (parfois appelées xérophytes bien qu'il ne faille pas confondre les deux termes), des insectes, des nématodes et la crevette Artemia salina peuvent tolérer une dessiccation extrême.
 On parle également de milieux xérophiles pour désigner des milieux pauvres en eau abritant les espèces xérophiles.
